--- a/data/trans_bre/P34A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>9.097767539409919</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.710575412087465</v>
+        <v>5.710575412087454</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.06632990153871414</v>
@@ -649,7 +649,7 @@
         <v>0.2830978843814486</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1266796954368162</v>
+        <v>0.1266796954368159</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.21102278312079</v>
+        <v>-10.8733983034253</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.769590980495895</v>
+        <v>4.047764240114242</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5337047799154315</v>
+        <v>1.014032368109873</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.972376863705085</v>
+        <v>-1.603902209176621</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2524293259154154</v>
+        <v>-0.2750835494327419</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1289793599670103</v>
+        <v>0.1257334899197418</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01422352380953727</v>
+        <v>0.02643992171505485</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.04055982113927578</v>
+        <v>-0.03330238638250693</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.354787538087135</v>
+        <v>5.947177751555488</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.86634894995089</v>
+        <v>19.86406348647067</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.90559787708194</v>
+        <v>17.68167181138467</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.46855111288144</v>
+        <v>12.84598994401949</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2022667404075817</v>
+        <v>0.1823701688075367</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9445975833159203</v>
+        <v>0.9374413353950031</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5959408475167438</v>
+        <v>0.6285062948177278</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3305755876311451</v>
+        <v>0.3194831771647536</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.004456540889186</v>
+        <v>4.527680847974894</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.181953941697381</v>
+        <v>7.865797996178602</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.473985444093662</v>
+        <v>1.278095371527574</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.879769229177169</v>
+        <v>6.937964690484451</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1382632386578607</v>
+        <v>0.1228038666460837</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3370355024073609</v>
+        <v>0.3252409240977501</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04658584751203094</v>
+        <v>0.03960462399959505</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1760326801116859</v>
+        <v>0.1551459838040925</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.89530437344319</v>
+        <v>16.45046004978771</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>19.81225053792722</v>
+        <v>19.58135983087861</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.94132219257522</v>
+        <v>13.05930890903739</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20.8647616632995</v>
+        <v>19.73101812141966</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5760624292244946</v>
+        <v>0.5507199983560387</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.046400285475639</v>
+        <v>1.029203006012664</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.487601138328522</v>
+        <v>0.4891660429422888</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5883708020859519</v>
+        <v>0.5532523314507428</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>5.209029710320889</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.894528133814267</v>
+        <v>2.894528133814256</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.03336665719450627</v>
@@ -849,7 +849,7 @@
         <v>0.1639651232990588</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.07796636547998073</v>
+        <v>0.07796636547998043</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.869252673587603</v>
+        <v>-9.153480427260106</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.588358157473529</v>
+        <v>-5.83682885174859</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.381108955378306</v>
+        <v>-1.678612446300279</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.493914991475104</v>
+        <v>-4.817164511215221</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1972173298387483</v>
+        <v>-0.1976650028528153</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2568344936845791</v>
+        <v>-0.2584838033328238</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.08796616969949715</v>
+        <v>-0.05226207171176087</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.0861584727774231</v>
+        <v>-0.115666841762095</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.91279730792355</v>
+        <v>6.881820936214597</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.778112261227714</v>
+        <v>6.514446018273601</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.6439225689166</v>
+        <v>12.306158362489</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.59729464486924</v>
+        <v>9.36705501153333</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1847477085506044</v>
+        <v>0.1845402708846119</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4433310981938949</v>
+        <v>0.4264896257541315</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4100934559000982</v>
+        <v>0.4364200801122728</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2936549192983505</v>
+        <v>0.2841728196028038</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>13.2029783507779</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.443046457118554</v>
+        <v>4.443046457118566</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08271646290078691</v>
@@ -949,7 +949,7 @@
         <v>0.6088223087929802</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1290146196863393</v>
+        <v>0.1290146196863397</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.903844489179754</v>
+        <v>-3.97721163431285</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.47862250912426</v>
+        <v>-1.102524421038772</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.277383457702682</v>
+        <v>6.681169699515903</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.975637152532877</v>
+        <v>-4.124734141405999</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.09017496781721696</v>
+        <v>-0.09404994434943879</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.01801158075847072</v>
+        <v>-0.04201010244456494</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2937249633498822</v>
+        <v>0.2731096030522601</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09654077089164079</v>
+        <v>-0.1018714628686541</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.05893257867717</v>
+        <v>9.758325749425939</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.75698040122741</v>
+        <v>12.73243017956784</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>20.43075451811828</v>
+        <v>19.79167474556722</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.20105071289851</v>
+        <v>11.94580955169906</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.294667281220154</v>
+        <v>0.2869718536779765</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5264872009169218</v>
+        <v>0.5103294654413678</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.110343534272212</v>
+        <v>1.116754130601713</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4342171954856703</v>
+        <v>0.4161695641530802</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>13.5612244378266</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.473333755241002</v>
+        <v>4.473333755240999</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3666005489349156</v>
@@ -1049,7 +1049,7 @@
         <v>0.3900623363246555</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4876518556881257</v>
+        <v>0.4876518556881254</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.977498296821215</v>
+        <v>7.436321180306327</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9253085689020089</v>
+        <v>0.5252743124588094</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.493549077183614</v>
+        <v>3.534542606465527</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2816697631582794</v>
+        <v>-0.0003063797658843661</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1609628616344956</v>
+        <v>0.1431300497018851</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02731002343246672</v>
+        <v>0.02269162677200372</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.106305555536051</v>
+        <v>0.09041826683708298</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.003505051442046896</v>
+        <v>-0.009464365003931306</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>28.33842887124365</v>
+        <v>27.761088604563</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.85546690076298</v>
+        <v>19.33080797544018</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23.16525624450596</v>
+        <v>22.28133726241254</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.127078019025305</v>
+        <v>8.79283139772534</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6390664047750331</v>
+        <v>0.649504068042398</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7997489965430982</v>
+        <v>0.849892681344145</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7876814751843623</v>
+        <v>0.7501417285838131</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.3407786961137</v>
+        <v>1.248068547964567</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>7.296440865876424</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.4594679488746589</v>
+        <v>0.4594679488746423</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1904607136991369</v>
@@ -1149,7 +1149,7 @@
         <v>0.2123955285248578</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.01083777440519536</v>
+        <v>0.01083777440519497</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.7082570634671479</v>
+        <v>-1.299717789830849</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.8163929723271856</v>
+        <v>-1.909405712036109</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.115302255710892</v>
+        <v>-2.017843292403803</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-6.900803010985072</v>
+        <v>-6.870420812479063</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.01521656269397527</v>
+        <v>-0.03027402738648931</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.0513966436862641</v>
+        <v>-0.1271351811667009</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.01928366919779334</v>
+        <v>-0.04693216048252033</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1486811802182185</v>
+        <v>-0.1486148944673207</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>15.33014849753211</v>
+        <v>15.84269541649199</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>11.45747375731693</v>
+        <v>11.31642203374834</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.47363150135362</v>
+        <v>16.00759646320478</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8.296358949952628</v>
+        <v>7.661537062526783</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4620532766525067</v>
+        <v>0.4870889415385664</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.036645666940006</v>
+        <v>0.980316472342019</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5346747762504718</v>
+        <v>0.5266135404577955</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2114570921722697</v>
+        <v>0.2013503269056865</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>6.568268347114009</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12.03136331248327</v>
+        <v>12.03136331248326</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03234034248036446</v>
@@ -1249,7 +1249,7 @@
         <v>0.1644732352863831</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4141631650046094</v>
+        <v>0.414163165004609</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.049060922105038</v>
+        <v>-5.24213071383982</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.007437969804740258</v>
+        <v>0.1538944799707799</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1081207516757978</v>
+        <v>1.368183726563523</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7.196390414396229</v>
+        <v>6.712996628996343</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.08475192418623252</v>
+        <v>-0.1084557036229442</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0006294391900644434</v>
+        <v>0.007342211973123905</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.0005737700475687931</v>
+        <v>0.03181171462372838</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2188045146804834</v>
+        <v>0.2059083873556366</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.65499682202255</v>
+        <v>6.958790526166468</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.752241346111465</v>
+        <v>9.748254651172793</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.90712743276989</v>
+        <v>12.44843716196575</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.31197704794054</v>
+        <v>17.19572962102046</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1871843642446198</v>
+        <v>0.1705022493652714</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5307330540304041</v>
+        <v>0.5494488063325456</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3183354558752082</v>
+        <v>0.3371934497741654</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6593557808547184</v>
+        <v>0.6587189825532188</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>10.36887889683048</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5.023028473114249</v>
+        <v>5.023028473114261</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1405881151306203</v>
@@ -1349,7 +1349,7 @@
         <v>0.2707876424919343</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1658650703271045</v>
+        <v>0.1658650703271049</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.5400013782719285</v>
+        <v>1.306842650232218</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>7.470428528530915</v>
+        <v>7.333577222203903</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5.214186352479731</v>
+        <v>5.21709640221212</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2697315257312926</v>
+        <v>0.3821559893159922</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.009599960085535618</v>
+        <v>0.02721325318470549</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2715619085564201</v>
+        <v>0.2717905786071906</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1255275211445932</v>
+        <v>0.1305729418138418</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.007829028827365322</v>
+        <v>0.01321808540517269</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>11.30812069538978</v>
+        <v>11.5712755989698</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>16.9189545674041</v>
+        <v>16.67364444603197</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15.37295771217059</v>
+        <v>15.28149073733679</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9.038977576698093</v>
+        <v>9.053381070849099</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2615582885895655</v>
+        <v>0.2722083992556064</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7811161661100481</v>
+        <v>0.7507632751514067</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4265816773930383</v>
+        <v>0.4334160632943794</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3206093359233838</v>
+        <v>0.3244432532459791</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>8.904664107187804</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7.046258602336425</v>
+        <v>7.04625860233643</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1233556284741036</v>
@@ -1449,7 +1449,7 @@
         <v>0.263301517937805</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.2106628863444961</v>
+        <v>0.2106628863444963</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.537974500717267</v>
+        <v>2.511172079898007</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.337953553800397</v>
+        <v>6.440207259462238</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.477642798160074</v>
+        <v>6.619494624744394</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.827758313235861</v>
+        <v>4.75571331446318</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.05969502815604549</v>
+        <v>0.058159477412126</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2665581558322717</v>
+        <v>0.2711324328847171</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1847905290873009</v>
+        <v>0.1876736570513303</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.1383600492069679</v>
+        <v>0.1363782803418179</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.490839391346045</v>
+        <v>7.566542392681431</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.73691333552974</v>
+        <v>10.69212447022219</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11.21438201627286</v>
+        <v>11.30920737808366</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.28474385201544</v>
+        <v>9.229223922351599</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1871499532167874</v>
+        <v>0.1874608970976979</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4999485972017683</v>
+        <v>0.4945323495564208</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3456150192923582</v>
+        <v>0.3442342992097601</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.2863613970255986</v>
+        <v>0.2875142521811306</v>
       </c>
     </row>
     <row r="31">
